--- a/biology/Zoologie/Basile_(Disney)/Basile_(Disney).xlsx
+++ b/biology/Zoologie/Basile_(Disney)/Basile_(Disney).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Basile et Boniface (Br’er Fox &amp; Br’er Bear[1] en VO) sont des personnages de fiction de l'univers Disney créés en 1945 par Bill Walsh et Paul Murry pour les studios Disney.
-Inspirés des personnages des Contes de l'Oncle Rémus (Tales of Uncle Remus) de Joel Chandler Harris publiés entre 1880 et 1905, ils sont apparus pour la première fois le 14 octobre 1945 dans une série de comic strips hebdomadaires[2], préparant ainsi la sortie en novembre 1946 du long-métrage Mélodie du Sud.
+Basile et Boniface (Br’er Fox &amp; Br’er Bear en VO) sont des personnages de fiction de l'univers Disney créés en 1945 par Bill Walsh et Paul Murry pour les studios Disney.
+Inspirés des personnages des Contes de l'Oncle Rémus (Tales of Uncle Remus) de Joel Chandler Harris publiés entre 1880 et 1905, ils sont apparus pour la première fois le 14 octobre 1945 dans une série de comic strips hebdomadaires, préparant ainsi la sortie en novembre 1946 du long-métrage Mélodie du Sud.
 Irréductibles ennemis de Bibi Lapin (Br'er Rabbit en VO), ils intégrèrent par la suite l'univers de Donald Duck à travers les histoires de Tic et Tac ou des Castors Juniors. Toujours en quête d'un mauvais coup à faire, ils s'associent régulièrement à un autre "méchant" de la forêt : Grand Loup.
 </t>
         </is>
@@ -514,11 +526,13 @@
           <t>Basile et Boniface à travers le monde</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Allemagne : Gevatter Fuchs / Gevatter Bär
  Brésil : João Honesto, Amigo Raposo, Irmão Raposo / Zé Grandão, Amigo Urso, Irmão Urso
- Chine : 狐狸先生 (Húlí-xiānshēng) / 熊先生 (Xióng-xiānshēng)[3]
+ Chine : 狐狸先生 (Húlí-xiānshēng) / 熊先生 (Xióng-xiānshēng)
  Collectivité espérantophone : Fr-to Vulpo / Fr-to Urso
  Danemark : Bror Ræv / Gårdmand Bjørn, Bror Bjørn
  Espagne : Hermano Zorro / Hermano Oso
